--- a/18-03-2021/Train_Data.xlsx
+++ b/18-03-2021/Train_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Mastersheet" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="215">
   <si>
     <t>TRAIN_NUMBER</t>
   </si>
@@ -675,9 +674,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -803,7 +799,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,9 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1163,7 +1156,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J40" ca="1" si="0">RANDBETWEEN(18,60)</f>
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,7 +1189,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1222,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,7 +1255,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1288,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1321,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,7 +1354,7 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,7 +1387,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1420,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1453,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1486,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1519,7 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,7 +1552,7 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1585,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,7 +1618,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,7 +1651,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1684,7 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1717,7 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1750,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,7 +1783,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,7 +1816,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,7 +1849,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,7 +1882,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +1915,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +1948,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +1981,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2021,7 +2014,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2047,7 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2080,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2113,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,7 +2146,7 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2186,7 +2179,7 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,7 +2212,7 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,7 +2245,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2285,7 +2278,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2318,7 +2311,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2344,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,7 +2377,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,7 +2410,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5055,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,7 +6356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6697,354 +6690,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.80208333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.82291666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2.0833333333333329E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f ca="1">RANDBETWEEN(18,60)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30">
-        <v>6542122212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36">
-        <v>1236547890</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>